--- a/biology/Zoologie/Dolichopodini/Dolichopodini.xlsx
+++ b/biology/Zoologie/Dolichopodini/Dolichopodini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dolichopodinae
 Les Dolichopodini est une tribu d'insectes diptères de la sous-famille des Dolichopodinae de la famille des Dolichopodidae.
@@ -512,13 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tribu des Dolichopodini et la sous-famille des Dolichopodinae sont attribuées à Pierre-André Latreille en 1809[1].
-Genre type
-Le genre type de la sous-famille des Dolichopodinae est Dolichopus.
-Confirmation dans la famille
-La sous-famille des Dolichopodinae est confirmée dans la famille des Dolichopodidae par M. A. A. Pollet et al. en 2004[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tribu des Dolichopodini et la sous-famille des Dolichopodinae sont attribuées à Pierre-André Latreille en 1809.
 </t>
         </is>
       </c>
@@ -544,52 +554,128 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genre type</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type de la sous-famille des Dolichopodinae est Dolichopus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dolichopodini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichopodini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation dans la famille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Dolichopodinae est confirmée dans la famille des Dolichopodidae par M. A. A. Pollet et al. en 2004.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dolichopodini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichopodini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Allohercostomus Yang, Saigusa &amp; Masunaga, 2001[3]
-Katangaia Parent, 1933[4] (Dolichopodinae or incertae sedis)
+Allohercostomus Yang, Saigusa &amp; Masunaga, 2001
+Katangaia Parent, 1933 (Dolichopodinae or incertae sedis)
 †Prohercostomus Grichanov, 1997
-Pseudohercostomus Stackelberg, 1931[5] (Dolichopodinae or incertae sedis)
+Pseudohercostomus Stackelberg, 1931 (Dolichopodinae or incertae sedis)
 Tribu Dolichopodini Latreille, 1809
 Afrohercostomus Grichanov, 2010
-Ahercostomus Yang &amp; Saigusa, 2001[6]
-Ahypophyllus Zhang &amp; Yang, 2005[7]
-Anasyntormon Dyte, 1975[8]
+Ahercostomus Yang &amp; Saigusa, 2001
+Ahypophyllus Zhang &amp; Yang, 2005
+Anasyntormon Dyte, 1975
 Dolichopus Latreille, 1796
-Ethiromyia Brooks in Brooks &amp; Wheeler, 2005[9]
-Gymnopternus Loew, 1857[10]
-Hercostomus Loew, 1857[10]
-Lichtwardtia Enderlein, 1912[11] (possible synonym of Dolichopus?)
-Neohercostomus Grichanov, 2011[12]
-Neohercostomus Grichanov, 2011[12]
-Subhercostomus Grichanov, 2011[12]
+Ethiromyia Brooks in Brooks &amp; Wheeler, 2005
+Gymnopternus Loew, 1857
+Hercostomus Loew, 1857
+Lichtwardtia Enderlein, 1912 (possible synonym of Dolichopus?)
+Neohercostomus Grichanov, 2011
+Neohercostomus Grichanov, 2011
+Subhercostomus Grichanov, 2011
 Ortochile Latreille, 1809
-Parahercostomus Yang, Saigusa &amp; Masunaga, 2001[6]
-Poecilobothrus Mik, 1878[13]
-Setihercostomus Zhang &amp; Yang, 2005[7]
-Srilankamyia Naglis, Grootaert &amp; Wei, 2011[14]
+Parahercostomus Yang, Saigusa &amp; Masunaga, 2001
+Poecilobothrus Mik, 1878
+Setihercostomus Zhang &amp; Yang, 2005
+Srilankamyia Naglis, Grootaert &amp; Wei, 2011
 Sybistroma Meigen, 1824
-Tribu Tachytrechini Negrobov, 1986[15]
-Afroparaclius Grichanov, 2006[16],[17]
-Afropelastoneurus Grichanov, 2006[16],[17]
-Apelastoneurus Grichanov, 2006[16]
-Aphalacrosoma Zhang &amp; Yang, 2005[7]
-Argyrochlamys Lamb, 1922[18]
-Cheiromyia Dyte, 1980[19]
-Metaparaclius Becker, 1922[20]
-Muscidideicus Becker, 1917[21]
-Paraclius Loew, 1864[22]
+Tribu Tachytrechini Negrobov, 1986
+Afroparaclius Grichanov, 2006,
+Afropelastoneurus Grichanov, 2006,
+Apelastoneurus Grichanov, 2006
+Aphalacrosoma Zhang &amp; Yang, 2005
+Argyrochlamys Lamb, 1922
+Cheiromyia Dyte, 1980
+Metaparaclius Becker, 1922
+Muscidideicus Becker, 1917
+Paraclius Loew, 1864
 Pelastoneurus Loew, 1861
-Phoomyia Naglis &amp; Grootaert, 2013[23]
-Platyopsis Parent, 1929[24]
-Pseudargyrochlamys Grichanov, 2006[16]
-Pseudoparaclius Grichanov, 2006[16]
-Pseudopelastoneurus Grichanov, 2006[16]
-Stenopygium Becker, 1922[25]
+Phoomyia Naglis &amp; Grootaert, 2013
+Platyopsis Parent, 1929
+Pseudargyrochlamys Grichanov, 2006
+Pseudoparaclius Grichanov, 2006
+Pseudopelastoneurus Grichanov, 2006
+Stenopygium Becker, 1922
 Tachytrechus Haliday in Walker, 1851
 </t>
         </is>
